--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4293,6 +4293,790 @@
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112038596</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>616076.0611235843</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6895427.595461337</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112038601</v>
+      </c>
+      <c r="B35" t="n">
+        <v>73634</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6426</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Kattfotslav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Felipes leucopellaeus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>616012.5978259755</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6895611.944218947</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112038600</v>
+      </c>
+      <c r="B36" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>616034.1211971109</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6895585.10294092</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>112038604</v>
+      </c>
+      <c r="B37" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>615977.7276359925</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6895550.438170813</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>112038599</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>616070.2961488151</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6895499.860901954</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>112038602</v>
+      </c>
+      <c r="B39" t="n">
+        <v>86223</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4412</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Äggvaxskivling</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>616026.2967975155</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6895553.979090866</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>112038603</v>
+      </c>
+      <c r="B40" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Västanå, Mpd</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>615968.1934313668</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6895405.650930508</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Njurunda</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-09</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Olle Finnström</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -4295,10 +4295,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112038596</v>
+        <v>112038601</v>
       </c>
       <c r="B34" t="n">
-        <v>90087</v>
+        <v>73634</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4311,21 +4311,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3298</v>
+        <v>6426</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>616076.0611235843</v>
+        <v>616012.5978259755</v>
       </c>
       <c r="R34" t="n">
-        <v>6895427.595461337</v>
+        <v>6895611.944218947</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112038601</v>
+        <v>112038602</v>
       </c>
       <c r="B35" t="n">
-        <v>73634</v>
+        <v>86223</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4419,25 +4419,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6426</v>
+        <v>4412</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616012.5978259755</v>
+        <v>616026.2967975155</v>
       </c>
       <c r="R35" t="n">
-        <v>6895611.944218947</v>
+        <v>6895553.979090866</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112038600</v>
+        <v>112038596</v>
       </c>
       <c r="B36" t="n">
-        <v>86223</v>
+        <v>90087</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4531,25 +4531,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4412</v>
+        <v>3298</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4559,10 +4559,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616034.1211971109</v>
+        <v>616076.0611235843</v>
       </c>
       <c r="R36" t="n">
-        <v>6895585.10294092</v>
+        <v>6895427.595461337</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4631,10 +4631,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112038604</v>
+        <v>112038600</v>
       </c>
       <c r="B37" t="n">
-        <v>89845</v>
+        <v>86223</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4643,25 +4643,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1209</v>
+        <v>4412</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4671,10 +4671,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>615977.7276359925</v>
+        <v>616034.1211971109</v>
       </c>
       <c r="R37" t="n">
-        <v>6895550.438170813</v>
+        <v>6895585.10294092</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112038602</v>
+        <v>112038603</v>
       </c>
       <c r="B39" t="n">
-        <v>86223</v>
+        <v>89369</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4867,25 +4867,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4412</v>
+        <v>5447</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>616026.2967975155</v>
+        <v>615968.1934313668</v>
       </c>
       <c r="R39" t="n">
-        <v>6895553.979090866</v>
+        <v>6895405.650930508</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112038603</v>
+        <v>112038604</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>89845</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4979,25 +4979,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>615968.1934313668</v>
+        <v>615977.7276359925</v>
       </c>
       <c r="R40" t="n">
-        <v>6895405.650930508</v>
+        <v>6895550.438170813</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>

--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -4407,10 +4407,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112038602</v>
+        <v>112038604</v>
       </c>
       <c r="B35" t="n">
-        <v>86223</v>
+        <v>89845</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4419,25 +4419,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4412</v>
+        <v>1209</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616026.2967975155</v>
+        <v>615977.7276359925</v>
       </c>
       <c r="R35" t="n">
-        <v>6895553.979090866</v>
+        <v>6895550.438170813</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112038599</v>
+        <v>112038603</v>
       </c>
       <c r="B38" t="n">
-        <v>89423</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616070.2961488151</v>
+        <v>615968.1934313668</v>
       </c>
       <c r="R38" t="n">
-        <v>6895499.860901954</v>
+        <v>6895405.650930508</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112038603</v>
+        <v>112038599</v>
       </c>
       <c r="B39" t="n">
-        <v>89369</v>
+        <v>89423</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4867,25 +4867,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>615968.1934313668</v>
+        <v>616070.2961488151</v>
       </c>
       <c r="R39" t="n">
-        <v>6895405.650930508</v>
+        <v>6895499.860901954</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112038604</v>
+        <v>112038602</v>
       </c>
       <c r="B40" t="n">
-        <v>89845</v>
+        <v>86223</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4979,25 +4979,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1209</v>
+        <v>4412</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>615977.7276359925</v>
+        <v>616026.2967975155</v>
       </c>
       <c r="R40" t="n">
-        <v>6895550.438170813</v>
+        <v>6895553.979090866</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>

--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -4295,10 +4295,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112038601</v>
+        <v>112038596</v>
       </c>
       <c r="B34" t="n">
-        <v>73634</v>
+        <v>90087</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4311,21 +4311,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6426</v>
+        <v>3298</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>616012.5978259755</v>
+        <v>616076.0611235843</v>
       </c>
       <c r="R34" t="n">
-        <v>6895611.944218947</v>
+        <v>6895427.595461337</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4407,10 +4407,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112038604</v>
+        <v>112038603</v>
       </c>
       <c r="B35" t="n">
-        <v>89845</v>
+        <v>89369</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4419,25 +4419,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>615977.7276359925</v>
+        <v>615968.1934313668</v>
       </c>
       <c r="R35" t="n">
-        <v>6895550.438170813</v>
+        <v>6895405.650930508</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4519,10 +4519,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112038596</v>
+        <v>112038599</v>
       </c>
       <c r="B36" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4531,25 +4531,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4559,10 +4559,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616076.0611235843</v>
+        <v>616070.2961488151</v>
       </c>
       <c r="R36" t="n">
-        <v>6895427.595461337</v>
+        <v>6895499.860901954</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112038603</v>
+        <v>112038602</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>86223</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4755,25 +4755,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>4412</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>615968.1934313668</v>
+        <v>616026.2967975155</v>
       </c>
       <c r="R38" t="n">
-        <v>6895405.650930508</v>
+        <v>6895553.979090866</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4855,10 +4855,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112038599</v>
+        <v>112038601</v>
       </c>
       <c r="B39" t="n">
-        <v>89423</v>
+        <v>73634</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4867,25 +4867,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5432</v>
+        <v>6426</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>616070.2961488151</v>
+        <v>616012.5978259755</v>
       </c>
       <c r="R39" t="n">
-        <v>6895499.860901954</v>
+        <v>6895611.944218947</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112038602</v>
+        <v>112038604</v>
       </c>
       <c r="B40" t="n">
-        <v>86223</v>
+        <v>89845</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4979,25 +4979,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4412</v>
+        <v>1209</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5007,10 +5007,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>616026.2967975155</v>
+        <v>615977.7276359925</v>
       </c>
       <c r="R40" t="n">
-        <v>6895553.979090866</v>
+        <v>6895550.438170813</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>

--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -4295,10 +4295,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112038596</v>
+        <v>112038604</v>
       </c>
       <c r="B34" t="n">
-        <v>90087</v>
+        <v>89845</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4307,25 +4307,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3298</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>616076.0611235843</v>
+        <v>615978</v>
       </c>
       <c r="R34" t="n">
-        <v>6895427.595461337</v>
+        <v>6895550</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4368,19 +4368,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4407,10 +4397,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112038603</v>
+        <v>112038601</v>
       </c>
       <c r="B35" t="n">
-        <v>89369</v>
+        <v>73634</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4423,21 +4413,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5447</v>
+        <v>6426</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4447,10 +4437,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>615968.1934313668</v>
+        <v>616013</v>
       </c>
       <c r="R35" t="n">
-        <v>6895405.650930508</v>
+        <v>6895612</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4480,19 +4470,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4519,10 +4499,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112038599</v>
+        <v>112038602</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>86223</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4535,21 +4515,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>4412</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4559,10 +4539,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616070.2961488151</v>
+        <v>616026</v>
       </c>
       <c r="R36" t="n">
-        <v>6895499.860901954</v>
+        <v>6895554</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4592,19 +4572,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4671,10 +4641,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>616034.1211971109</v>
+        <v>616034</v>
       </c>
       <c r="R37" t="n">
-        <v>6895585.10294092</v>
+        <v>6895585</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4704,19 +4674,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4743,10 +4703,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112038602</v>
+        <v>112038596</v>
       </c>
       <c r="B38" t="n">
-        <v>86223</v>
+        <v>90087</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4755,25 +4715,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4412</v>
+        <v>3298</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4783,10 +4743,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616026.2967975155</v>
+        <v>616076</v>
       </c>
       <c r="R38" t="n">
-        <v>6895553.979090866</v>
+        <v>6895428</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4816,19 +4776,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4855,10 +4805,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112038601</v>
+        <v>112038599</v>
       </c>
       <c r="B39" t="n">
-        <v>73634</v>
+        <v>89423</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4867,25 +4817,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6426</v>
+        <v>5432</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4895,10 +4845,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>616012.5978259755</v>
+        <v>616070</v>
       </c>
       <c r="R39" t="n">
-        <v>6895611.944218947</v>
+        <v>6895500</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4928,19 +4878,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4967,10 +4907,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112038604</v>
+        <v>112038603</v>
       </c>
       <c r="B40" t="n">
-        <v>89845</v>
+        <v>89369</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4979,25 +4919,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5007,10 +4947,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>615977.7276359925</v>
+        <v>615968</v>
       </c>
       <c r="R40" t="n">
-        <v>6895550.438170813</v>
+        <v>6895406</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5040,19 +4980,9 @@
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-09</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">

--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -4295,10 +4295,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112038604</v>
+        <v>112038603</v>
       </c>
       <c r="B34" t="n">
-        <v>89845</v>
+        <v>89503</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4307,25 +4307,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>615978</v>
+        <v>615968</v>
       </c>
       <c r="R34" t="n">
-        <v>6895550</v>
+        <v>6895406</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112038601</v>
+        <v>112038600</v>
       </c>
       <c r="B35" t="n">
-        <v>73634</v>
+        <v>86357</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4409,25 +4409,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6426</v>
+        <v>4412</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616013</v>
+        <v>616034</v>
       </c>
       <c r="R35" t="n">
-        <v>6895612</v>
+        <v>6895585</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112038602</v>
+        <v>112038604</v>
       </c>
       <c r="B36" t="n">
-        <v>86223</v>
+        <v>89979</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4511,25 +4511,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4412</v>
+        <v>1209</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616026</v>
+        <v>615978</v>
       </c>
       <c r="R36" t="n">
-        <v>6895554</v>
+        <v>6895550</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112038600</v>
+        <v>112038601</v>
       </c>
       <c r="B37" t="n">
-        <v>86223</v>
+        <v>73758</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4613,25 +4613,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4412</v>
+        <v>6426</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4641,10 +4641,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>616034</v>
+        <v>616013</v>
       </c>
       <c r="R37" t="n">
-        <v>6895585</v>
+        <v>6895612</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112038596</v>
+        <v>112038602</v>
       </c>
       <c r="B38" t="n">
-        <v>90087</v>
+        <v>86357</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4715,25 +4715,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3298</v>
+        <v>4412</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616076</v>
+        <v>616026</v>
       </c>
       <c r="R38" t="n">
-        <v>6895428</v>
+        <v>6895554</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4808,7 +4808,7 @@
         <v>112038599</v>
       </c>
       <c r="B39" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112038603</v>
+        <v>112038596</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>90221</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4923,21 +4923,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>615968</v>
+        <v>616076</v>
       </c>
       <c r="R40" t="n">
-        <v>6895406</v>
+        <v>6895428</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>

--- a/artfynd/A 19418-2023.xlsx
+++ b/artfynd/A 19418-2023.xlsx
@@ -4295,10 +4295,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112038603</v>
+        <v>112038600</v>
       </c>
       <c r="B34" t="n">
-        <v>89503</v>
+        <v>86371</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4307,25 +4307,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5447</v>
+        <v>4412</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4335,10 +4335,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>615968</v>
+        <v>616034</v>
       </c>
       <c r="R34" t="n">
-        <v>6895406</v>
+        <v>6895585</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4397,10 +4397,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112038600</v>
+        <v>112038596</v>
       </c>
       <c r="B35" t="n">
-        <v>86357</v>
+        <v>90235</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4409,25 +4409,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4412</v>
+        <v>3298</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616034</v>
+        <v>616076</v>
       </c>
       <c r="R35" t="n">
-        <v>6895585</v>
+        <v>6895428</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4499,10 +4499,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112038604</v>
+        <v>112038601</v>
       </c>
       <c r="B36" t="n">
-        <v>89979</v>
+        <v>73772</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4511,25 +4511,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1209</v>
+        <v>6426</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>615978</v>
+        <v>616013</v>
       </c>
       <c r="R36" t="n">
-        <v>6895550</v>
+        <v>6895612</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4601,10 +4601,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112038601</v>
+        <v>112038602</v>
       </c>
       <c r="B37" t="n">
-        <v>73758</v>
+        <v>86371</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4613,25 +4613,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6426</v>
+        <v>4412</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4641,10 +4641,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>616013</v>
+        <v>616026</v>
       </c>
       <c r="R37" t="n">
-        <v>6895612</v>
+        <v>6895554</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112038602</v>
+        <v>112038603</v>
       </c>
       <c r="B38" t="n">
-        <v>86357</v>
+        <v>89517</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4715,25 +4715,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4412</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616026</v>
+        <v>615968</v>
       </c>
       <c r="R38" t="n">
-        <v>6895554</v>
+        <v>6895406</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4808,7 +4808,7 @@
         <v>112038599</v>
       </c>
       <c r="B39" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4907,10 +4907,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112038596</v>
+        <v>112038604</v>
       </c>
       <c r="B40" t="n">
-        <v>90221</v>
+        <v>89993</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4919,25 +4919,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>1209</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>616076</v>
+        <v>615978</v>
       </c>
       <c r="R40" t="n">
-        <v>6895428</v>
+        <v>6895550</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
